--- a/output/fit_clients/fit_round_15.xlsx
+++ b/output/fit_clients/fit_round_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8636612091.183058</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004822994553215743</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.07751676128178012</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.878433531222273</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.4421270382656988</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.878433531222273</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4457651041.053545</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005830205885901715</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.49005101486507</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9623521052729116</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.49005101486507</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5595988978.802147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002836323454773457</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.472879541898965</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9742449399175083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.472879541898965</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4001880960.003349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004157562767275811</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.38272780754781</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7462301736833551</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.38272780754781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7211874794.737803</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002412718510671924</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.119194352104805</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.765837376981064</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.119194352104805</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6042100839.792628</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.00131441918363826</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.484694345854217</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9688572035859963</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.484694345854217</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6979544132.883304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003437956028446327</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.424298235076773</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9634393384775628</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.424298235076773</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6550646808.78476</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004208213802734728</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.592511164188434</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9545316388038738</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.592511164188434</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3204386840.357274</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004670273363754247</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.486613890886756</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9902322803252009</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.486613890886756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4586705149.056083</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001382931223719723</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.500943680925358</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7289716215707588</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.500943680925358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6756563257.328142</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001505616236875259</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.607976653424416</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.014256875877237</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.607976653424416</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5655079757.088036</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003407908447419847</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.922240602055372</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.018705559191006</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.922240602055372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8351949638.956044</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003337248827419541</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.939199666975138</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.944752393641851</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.096104165790515</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.944752393641851</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7076764900.447487</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005310086196514558</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.214486843807536</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9451401443849698</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.214486843807536</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7072979911.199903</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003545471262125476</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.606198846375527</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9065135347057567</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.606198846375527</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6700899420.563056</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.0033695235996649</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.434940340916755</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9645253461309155</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.434940340916755</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5205652636.158586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001220521632901625</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.676650661184254</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9868861036431535</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.676650661184254</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2933971916.433718</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001952177891831538</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9873907113746071</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.959994150478209</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.172550333238762</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.959994150478209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5590696875.785187</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001313981318923086</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.452900072638025</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8466068356890062</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.452900072638025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7751845674.746887</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.003831435058613554</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.119715314904609</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8395530336250197</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.119715314904609</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4854855528.926973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00378051627075814</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.828261299169788</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9026719043734531</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.828261299169788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7490161273.270452</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001356090636109248</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9716445714625609</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.472498702819076</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.171977313425942</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.472498702819076</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7527772370.686397</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003162931037304027</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.083795668018127</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4915690661.888589</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003048769575355058</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.014224106331347</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.181455575141393</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.014224106331347</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4125163319.489635</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001317290212822964</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942154</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.368837558022157</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8492732995135048</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.368837558022157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6741964213.313296</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003595874644757397</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.561248653469873</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9427448697801745</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.561248653469873</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7487116333.440083</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005153107518973086</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.582619157762805</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8297189013584009</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.582619157762805</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7217321146.703604</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001445467167653741</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.620937165284351</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.009082795537542</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.620937165284351</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6758715733.443875</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002954091343785012</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.385856602102653</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9369976164628163</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-5.385856602102653</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5130715376.942373</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003057332367622839</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.027179274747014</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9462471542524818</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.027179274747014</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3429982633.80251</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.000947414253915232</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.802796882280818</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9731697788936886</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.802796882280818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7410692383.173353</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002286473406077402</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.8104690850444908</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.63127819680055</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9712970637649277</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.63127819680055</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7417916612.130077</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005840160901500746</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8777885054267348</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6863065768.977361</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001822221246680187</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.718385790304864</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9995346889420634</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.718385790304864</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5417297064.781804</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002773050544976805</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.552421004117199</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9486335857232358</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.552421004117199</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6467075880.496617</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005329524847236742</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.689060776227073</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.059687363515196</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-5.689060776227073</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4225279522.426357</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005048017530733038</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.872065162905668</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8761636995192905</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.872065162905668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5580547832.859701</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002429112624694334</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.918961594983458</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9289637281462624</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-7.918961594983458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5761797175.778537</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003653819419875934</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.91477442672225</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.054577617889716</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-7.91477442672225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6334957484.462845</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001025152299403295</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.536698038083609</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9514114412253092</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-5.536698038083609</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4916999268.211646</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004721938780452941</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.413494407554145</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.018377212959799</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-5.413494407554145</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6060027833.36781</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004343145305782191</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.635357627676775</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9590830106484891</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.635357627676775</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5271332029.45341</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001813514779685508</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.07780606534546655</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.074042282304652</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.3589017952141603</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.074042282304652</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3968749547.935288</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001449694104851351</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
         <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.798521618853571</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9923444652961008</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.798521618853571</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9880929430.580383</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004165747311733672</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
         <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8153907743883778</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.5408340119489</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.011152303240051</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-5.5408340119489</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9023568718.66803</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002081411268296997</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9328115405764884</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.432867768096166</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.166988883184057</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-5.432867768096166</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8252486109.079871</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002432175125828713</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.772489346791476</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9963875958631119</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.772489346791476</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4436845236.113358</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003440721172799335</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.687933736705453</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8182844222185125</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.687933736705453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8479792941.439333</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003904998522618331</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.588597020723174</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.018377212959799</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.588597020723174</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5540919936.220221</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003832011050417899</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.021656314680234</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9373544696153595</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-4.021656314680234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8351919690.201316</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001469239134662314</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.469824279115309</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8541898353867655</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.469824279115309</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5416981672.627655</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002511881998289417</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.552246797693557</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9248066495493972</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.552246797693557</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5358318922.60682</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00516085722708563</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.475835780699746</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7883098086281044</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.475835780699746</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8432888418.85229</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004206771954704142</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9952563770359735</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.528283277299688</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.204708097308939</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.528283277299688</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4955520138.656469</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002010825371698342</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9921892522497175</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.551419850477792</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.219267062137898</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.551419850477792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8305971335.764449</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003916641610647292</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.494687792924342</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8318366159446552</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.494687792924342</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5196388352.604165</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002818177059171095</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.113863012495008</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7219869370470322</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.113863012495008</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7724249246.038656</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003018729081583221</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.499523298527151</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.89722712474696</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.499523298527151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3825715735.881418</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003044921281478224</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.41527102348951</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8430873117608655</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.41527102348951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4528451258.203346</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005627209891842957</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.625747670888094</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9395855312389867</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.625747670888094</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5705646393.034865</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003064666134694172</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6.096985423732432</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9166659227904053</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-6.096985423732432</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7197435389.352983</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003940445586297275</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.499408168828048</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.4472135954999579</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.499408168828048</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4538799666.293955</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004809601706422644</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.68392266322229</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9589086437659863</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-7.68392266322229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7132874951.438358</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005301552490063808</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2535310999461446</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.987786569086253</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.5419455775211065</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.987786569086253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4837113318.258087</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003452683960115382</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.59211309484937</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8334955359688662</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.59211309484937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7201765526.318521</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004604951615439917</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.8125434027237</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9423900578030019</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.8125434027237</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6419286009.379529</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002674509905146539</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6054652601503268</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.403953138459502</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7306758153640425</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.403953138459502</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4126192298.513853</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001184236155309694</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.588585196810681</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9944521640629886</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.588585196810681</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5106699905.777612</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003396248826917922</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.541157353029202</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.950134470412528</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-8.541157353029202</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4573435138.841082</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.004080320392054367</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.677569843352474</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8683874822115523</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.677569843352474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5480428658.267607</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001821147648394275</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.721372852591421</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.119114608584309</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-7.721372852591421</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5913324092.609672</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009751565665084601</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.705844196717699</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.014091995845942</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.705844196717699</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4900263091.210252</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005206714779386227</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.660618491799362</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.950134470412528</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.660618491799362</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8287487241.411901</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00397190042247091</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9216670798579571</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.345081058169521</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.009622968822988</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.345081058169521</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5230151316.69433</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002202356978292851</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.626422893114627</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9427448697801745</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.626422893114627</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5581887088.893964</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005018472912222362</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.55532107424484</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9997019699010071</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.55532107424484</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7338050175.187504</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00336276493157902</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.552372486168633</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9645253461309155</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.552372486168633</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7221871914.091701</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002058466360030711</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.460351500258898</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9394075453647381</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.460351500258898</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6065157158.410369</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003360713595565172</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.834419721105751</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9882847941852272</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.834419721105751</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7584418811.308608</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003844987270582901</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.650639580858185</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.016154587080413</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.650639580858185</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7056461201.801829</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005628375420308834</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
         <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.594820524380655</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9469997850490284</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.594820524380655</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10934978425.15776</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003167378520514929</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.467311532319533</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8723801011722169</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-4.467311532319533</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5171820269.238714</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005067962484300133</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.510450972375494</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9744165624517656</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.510450972375494</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4866222987.418929</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002432315180602109</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.477796290331113</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9371760600241801</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.477796290331113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5966249113.649721</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002377200993977966</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.800824359003485</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.000915704368894</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.800824359003485</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4986216459.514727</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001482585414072006</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2806630371891059</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.540896572155557</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.4587130340878637</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.540896572155557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8124734885.697769</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005108802868685904</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.8725875959486127</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.470590270819114</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.035138942298015</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.470590270819114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5132317439.775434</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00518017557496625</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.059411694290424</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9113047571705558</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.059411694290424</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5701857033.2434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003592069749848611</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.09773519509500282</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.46664271904807</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.1761855299790279</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.46664271904807</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7178567612.38679</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004277237462670413</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.5917391587864</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8707952618540572</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.5917391587864</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4760485437.624298</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003003725515673116</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.027490967827673</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.008376503245626</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.027490967827673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6404769697.710414</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001243410714222282</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.01592433696706085</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.971165451673653</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.489448202087638</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.971165451673653</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5286533450.388282</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001058952695338158</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>7.777214015231524</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.062489636362151</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-7.777214015231524</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6438152162.276378</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002024674281023845</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.471202625669328</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.911121246715408</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.471202625669328</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8892856264.405424</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002152768867511721</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.004726135483912</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9215858180699138</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-4.004726135483912</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6347872017.540092</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004896250384190191</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.656836569946241</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.929143714630223</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-5.656836569946241</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7163648678.930427</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004090750875609007</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.770578676514602</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8231829073975921</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.770578676514602</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2418367713.923412</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004858475698364923</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.997290266576507</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.585826899962616</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.20610787798859</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.585826899962616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4245218015.965815</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002515084886253895</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.8856936891166</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7800866706568961</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.8856936891166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5891396218.659333</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.00169552308486522</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6322269338732661</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.821885226720758</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9042008735889211</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.821885226720758</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_15.xlsx
+++ b/output/fit_clients/fit_round_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8636612091.183058</v>
+        <v>1590912396.903742</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004822994553215743</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>0.07345847346875377</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0383831898149293</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>795456138.8196344</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4457651041.053545</v>
+        <v>2620898737.141498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005830205885901715</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1385173472115077</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04599491385664529</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1310449504.321927</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3498782570.265151</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1109476690783039</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03679899102343977</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5595988978.802147</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002836323454773457</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1749391263.43794</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3889511382.882362</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0686137659768617</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04798487608521216</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4001880960.003349</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004157562767275811</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v>1944755702.203259</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7211874794.737803</v>
+        <v>2689134789.518049</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002412718510671924</v>
-      </c>
-      <c r="G6" t="b">
+        <v>0.09523947779484805</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04918021615456016</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1344567349.434738</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6042100839.792628</v>
+        <v>1964937989.584125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00131441918363826</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+        <v>0.06353002860171751</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04433576901459012</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>982469059.0399034</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6979544132.883304</v>
+        <v>2852258832.91362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003437956028446327</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>0.1414005340285545</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02420128547707391</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1426129458.522724</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6550646808.78476</v>
+        <v>2054555489.62031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004208213802734728</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
+        <v>0.1402085228119828</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02321837037822099</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1027277763.536747</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3204386840.357274</v>
+        <v>4803046020.030229</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004670273363754247</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.17005083892424</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04281051793022897</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2401523093.761992</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4586705149.056083</v>
+        <v>4115810235.377676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001382931223719723</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.131349359392357</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.047907960974061</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2057905138.158359</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6756563257.328142</v>
+        <v>2054519248.208947</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001505616236875259</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
+        <v>0.1343294697752626</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04990246679415983</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1027259555.084594</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5655079757.088036</v>
+        <v>5059678896.141807</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003407908447419847</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.08380095337345091</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02943041683273994</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2529839448.81821</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8351949638.956044</v>
+        <v>2451010669.005487</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003337248827419541</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
+        <v>0.1285019426296367</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03566790753689522</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1225505408.388739</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7076764900.447487</v>
+        <v>1508076896.599175</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005310086196514558</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+        <v>0.09590680338805263</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03943456769969549</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>754038535.3332201</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7072979911.199903</v>
+        <v>1788585309.562299</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003545471262125476</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
+        <v>0.1100932991484102</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04077938609177737</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>894292748.9278665</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6700899420.563056</v>
+        <v>4204525866.092304</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0033695235996649</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
+        <v>0.1708892155425796</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03752998828516705</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2102262957.226917</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5205652636.158586</v>
+        <v>2526193586.470672</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001220521632901625</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
+        <v>0.1345549030006558</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02919738078899077</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1263096857.493799</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2933971916.433718</v>
+        <v>837135851.997678</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001952177891831538</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1393036504051295</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02435789023447738</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>418567915.3329788</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5590696875.785187</v>
+        <v>2648128878.362234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001313981318923086</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1416593255610277</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02688250294757939</v>
+      </c>
+      <c r="H20" t="b">
         <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1324064396.19737</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7751845674.746887</v>
+        <v>2558850008.891371</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003831435058613554</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
+        <v>0.09885169780542682</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04582228595116229</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1279424986.678745</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4854855528.926973</v>
+        <v>2956659049.355033</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00378051627075814</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.124974835918466</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05664081588474143</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1478329588.507612</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7490161273.270452</v>
+        <v>1488949295.711182</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001356090636109248</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
+        <v>0.1490642050363003</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03403562709420931</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>744474635.2834591</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7527772370.686397</v>
+        <v>3899691918.123434</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003162931037304027</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
+        <v>0.1218589326042869</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03274197719540248</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1949845933.488529</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4915690661.888589</v>
+        <v>1081626862.378716</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003048769575355058</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.1094442128526452</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02103837493821789</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>540813476.1217918</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4125163319.489635</v>
+        <v>1338517203.481733</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001317290212822964</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1249051289014299</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02857743680631594</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>669258656.4204286</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6741964213.313296</v>
+        <v>3782713377.014325</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003595874644757397</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
+        <v>0.144549492958711</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01883713850221415</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1891356709.139565</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7487116333.440083</v>
+        <v>3390658846.623251</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005153107518973086</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
+        <v>0.1072546907528681</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04830335890734053</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1695329468.115285</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7217321146.703604</v>
+        <v>4552502051.683089</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001445467167653741</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
+        <v>0.1313158161097021</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04301668745435074</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2276251004.046115</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6758715733.443875</v>
+        <v>2349462340.77457</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002954091343785012</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
+        <v>0.1088460071455581</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03922849781881764</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1174731247.333929</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5130715376.942373</v>
+        <v>1184184981.816098</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003057332367622839</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.08778501487313918</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04354556362532637</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>592092445.7885982</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3429982633.80251</v>
+        <v>1668231971.855907</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000947414253915232</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09249873287664065</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02801984896512122</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>834116088.80837</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7410692383.173353</v>
+        <v>2527855205.935525</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002286473406077402</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
+        <v>0.2034383486537672</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0380031549607668</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1263927638.505312</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7417916612.130077</v>
+        <v>1423438497.275884</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005840160901500746</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
+        <v>0.1017483172865739</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02822888797397727</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>711719216.6459479</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6863065768.977361</v>
+        <v>957347648.5172037</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001822221246680187</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
+        <v>0.09140402637720281</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03133787755013086</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>478673851.9076896</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5417297064.781804</v>
+        <v>2510670639.495686</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002773050544976805</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
+        <v>0.1112954256643881</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02544280873087813</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1255335340.563921</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6467075880.496617</v>
+        <v>2259890199.058668</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005329524847236742</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.07416880091160896</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03362994735729347</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1129945162.261866</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4225279522.426357</v>
+        <v>1960953709.542161</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005048017530733038</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1174084852000715</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03038121291465949</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>980476838.5570712</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5580547832.859701</v>
+        <v>2192191698.580663</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002429112624694334</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.142314784033392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03148600268729142</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1096095814.338994</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5761797175.778537</v>
+        <v>1564426378.02917</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003653819419875934</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
+        <v>0.1283609056561903</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05194979594751557</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>782213138.7932748</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6334957484.462845</v>
+        <v>1937124480.017885</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001025152299403295</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
+        <v>0.1531771936145014</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02877637270225799</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>968562320.0170765</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4916999268.211646</v>
+        <v>3853912473.00675</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004721938780452941</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>0.1067898175717837</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03494152489176953</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1926956255.439051</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6060027833.36781</v>
+        <v>2815550882.796684</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004343145305782191</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
+        <v>0.147799028963027</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02592523566722783</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1407775458.035465</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5271332029.45341</v>
+        <v>1722064862.396579</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001813514779685508</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
+        <v>0.1014162814939047</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02713316724019836</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>861032481.800789</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3968749547.935288</v>
+        <v>2334584926.436876</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001449694104851351</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1632504320882926</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04024795243824077</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1167292487.509185</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9880929430.580383</v>
+        <v>3455639805.461674</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004165747311733672</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
+        <v>0.1076411714371305</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04192564459373991</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1727819840.784164</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9023568718.66803</v>
+        <v>4901769149.997277</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002081411268296997</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
+        <v>0.1318362589605844</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04214121318964605</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2450884624.965327</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8252486109.079871</v>
+        <v>3187588690.273155</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002432175125828713</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
+        <v>0.07685102562693094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03012092709348341</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1593794426.372771</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4436845236.113358</v>
+        <v>1775309785.514668</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003440721172799335</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1452454053789791</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03327788157395074</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>887654881.5923541</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8479792941.439333</v>
+        <v>2595570749.749572</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003904998522618331</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
+        <v>0.17685271200589</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05180799682479108</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1297785463.280362</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5540919936.220221</v>
+        <v>1166163753.326207</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003832011050417899</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1928048134555187</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03780750332321804</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>583081933.2500861</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8351919690.201316</v>
+        <v>4867461502.085507</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001469239134662314</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.1361702592777208</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05506662368742925</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>3</v>
+      <c r="I52" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2433730756.176947</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5416981672.627655</v>
+        <v>3450699313.545115</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002511881998289417</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+        <v>0.1298940325280585</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02856589947911892</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1725349657.72682</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5358318922.60682</v>
+        <v>4490431892.478025</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00516085722708563</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1533569325117674</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03903384763339449</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2245216048.386031</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8432888418.85229</v>
+        <v>4695240281.763572</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004206771954704142</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
+        <v>0.1360900562872997</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03147565938950377</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2347620146.171009</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4955520138.656469</v>
+        <v>1682418742.775479</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002010825371698342</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1486898269285292</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05268165428097733</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>841209386.358282</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8305971335.764449</v>
+        <v>3592647561.091098</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003916641610647292</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
+        <v>0.1292854355306611</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02264631832220631</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1796323834.36741</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5196388352.604165</v>
+        <v>1387666166.920048</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002818177059171095</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1308298266373699</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02672318195602787</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>693833124.5285788</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7724249246.038656</v>
+        <v>5091000046.309403</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003018729081583221</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.1208141256410569</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04497306273772284</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2545499946.143997</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3825715735.881418</v>
+        <v>3183623549.258789</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003044921281478224</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1870162163180573</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0276072962165103</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1591811863.872547</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4528451258.203346</v>
+        <v>2896263624.539433</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005627209891842957</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
+        <v>0.1658840355991933</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02976637790972227</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1448131802.143184</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5705646393.034865</v>
+        <v>1486393078.82194</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003064666134694172</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1864018172611191</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03114215728044751</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>743196520.0537245</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7197435389.352983</v>
+        <v>5299909026.888836</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003940445586297275</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
+        <v>0.1018434001130264</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04558618164429998</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2649954517.585432</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4538799666.293955</v>
+        <v>4566585326.133739</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004809601706422644</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1813179651392838</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03086874631324222</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2283292738.487723</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7132874951.438358</v>
+        <v>4704533701.797697</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005301552490063808</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
+        <v>0.1122275449809</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02096892250947414</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2352266827.127476</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4837113318.258087</v>
+        <v>3936474003.893364</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003452683960115382</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
+        <v>0.1363561534299046</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03167898239451952</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1968236971.796135</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7201765526.318521</v>
+        <v>2795304818.442791</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004604951615439917</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
+        <v>0.08460849424093855</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0478956921257336</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1397652444.518195</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6419286009.379529</v>
+        <v>5361428740.212632</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002674509905146539</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3</v>
+        <v>0.1579003422517996</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04826386052858835</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2680714447.962923</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4126192298.513853</v>
+        <v>1803440835.561297</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001184236155309694</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1676268732627148</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03979861682253508</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>901720397.0262309</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5106699905.777612</v>
+        <v>3268752914.66996</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003396248826917922</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
+        <v>0.07312885487198795</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04667433834220817</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1634376451.497381</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>531</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4581463139.906324</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1669952954423624</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03376666002254691</v>
+      </c>
+      <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>474</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4573435138.841082</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.004080320392054367</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2290731644.075246</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5480428658.267607</v>
+        <v>1737059064.941366</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001821147648394275</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
+        <v>0.08828596468431693</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04916722871521381</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>868529520.9076877</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3253436599.168668</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.106298984150281</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03660405588147808</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5913324092.609672</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.0009751565665084601</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1626718272.059774</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4900263091.210252</v>
+        <v>3068277663.83383</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005206714779386227</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>4</v>
+        <v>0.1465337674086365</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02611919250535896</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1534138891.092263</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8287487241.411901</v>
+        <v>1864986209.615391</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00397190042247091</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
+        <v>0.1447689713562079</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03725569137562263</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>932493081.3532155</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5230151316.69433</v>
+        <v>4512797998.486279</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002202356978292851</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08918335064131731</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02648265262743393</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2256399005.116741</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5581887088.893964</v>
+        <v>1531556983.428071</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005018472912222362</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5</v>
+        <v>0.1140045113827127</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02791856635103701</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>765778483.7490081</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7338050175.187504</v>
+        <v>4290152237.270593</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00336276493157902</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
+        <v>0.1163433758710414</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04610836578970313</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2145076063.265196</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7221871914.091701</v>
+        <v>1630457229.704157</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002058466360030711</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3</v>
+        <v>0.1106589314837624</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03482145855557287</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>815228671.5327799</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5119609020.939984</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.08467069318417686</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0298515698899231</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6065157158.410369</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.003360713595565172</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>4</v>
+      <c r="J80" t="n">
+        <v>2559804565.214822</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7584418811.308608</v>
+        <v>4625543279.831296</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003844987270582901</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.1374141617431223</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03097372213603258</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2312771626.061799</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7056461201.801829</v>
+        <v>3620869424.63104</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005628375420308834</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
+        <v>0.2126850799440919</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02395981097668172</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1810434772.835518</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10934978425.15776</v>
+        <v>2033462676.061199</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003167378520514929</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>4</v>
+        <v>0.1048221189686481</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0372805742901554</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1016731327.139473</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5171820269.238714</v>
+        <v>1749134924.439597</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005067962484300133</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>3</v>
+        <v>0.09073579691034168</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03396459310303485</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>874567503.7043594</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4866222987.418929</v>
+        <v>3579137989.903553</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002432315180602109</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1800126214209306</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04516338285436435</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1789569118.649052</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5966249113.649721</v>
+        <v>2475624606.702332</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002377200993977966</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
+        <v>0.1679397704276472</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01964845599399542</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1237812396.800999</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4986216459.514727</v>
+        <v>912875414.90994</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001482585414072006</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1403264370690172</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03686450060180888</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>456437689.0035594</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8124734885.697769</v>
+        <v>2471682864.614159</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005108802868685904</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
+        <v>0.178766867124546</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02852513041949279</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1235841410.201384</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5132317439.775434</v>
+        <v>3066891713.286983</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00518017557496625</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3</v>
+        <v>0.1059813456711595</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03790533800078259</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1533445889.529555</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5701857033.2434</v>
+        <v>1401869255.661705</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003592069749848611</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1344661199650111</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03407742481566683</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>700934588.2130884</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7178567612.38679</v>
+        <v>1517292976.230099</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004277237462670413</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>5</v>
+        <v>0.1496646730641712</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04498493140042836</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>758646524.4343696</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4760485437.624298</v>
+        <v>2561613650.741307</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003003725515673116</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07308270832893206</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03352607905700212</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1280806813.621069</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>478</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4056810017.931401</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1243676706403068</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04706754354777886</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="D93" t="n">
-        <v>588</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6404769697.710414</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.001243410714222282</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>5</v>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2028405005.622137</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5286533450.388282</v>
+        <v>2278927897.390032</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001058952695338158</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>5</v>
+        <v>0.1371579715527875</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03590593768294169</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1139463983.064742</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6438152162.276378</v>
+        <v>2472827462.483774</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002024674281023845</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4</v>
+        <v>0.1161692973096695</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03882546519265733</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1236413768.980078</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8892856264.405424</v>
+        <v>1927432599.908699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002152768867511721</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>4</v>
+        <v>0.1043223713284598</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03991582465391421</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>963716294.3470153</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6347872017.540092</v>
+        <v>4157311393.261702</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004896250384190191</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>4</v>
+        <v>0.1185588972912815</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02018663495145192</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2078655765.359466</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7163648678.930427</v>
+        <v>3152238303.803423</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004090750875609007</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>5</v>
+        <v>0.09186319247655705</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02019845302207376</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1576119146.592136</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2418367713.923412</v>
+        <v>3386743401.999833</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004858475698364923</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1112660349013496</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03203732848163304</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1693371714.786997</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4245218015.965815</v>
+        <v>4071695983.487926</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002515084886253895</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1146978380875842</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02509264530724461</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2035848067.813598</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5891396218.659333</v>
+        <v>2462661906.404192</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00169552308486522</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>5</v>
+        <v>0.2117025857954816</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03684346542569959</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1231330970.909388</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_15.xlsx
+++ b/output/fit_clients/fit_round_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1590912396.903742</v>
+        <v>1603126347.034993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07345847346875377</v>
+        <v>0.0899526646527944</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0383831898149293</v>
+        <v>0.03111145273710034</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>795456138.8196344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2620898737.141498</v>
+        <v>1685911479.066406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1385173472115077</v>
+        <v>0.1670336740585982</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04599491385664529</v>
+        <v>0.03550313633041723</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1310449504.321927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3498782570.265151</v>
+        <v>4237399067.107756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1109476690783039</v>
+        <v>0.1217451680466398</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03679899102343977</v>
+        <v>0.03162240298627168</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1749391263.43794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3889511382.882362</v>
+        <v>2906489547.599524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0686137659768617</v>
+        <v>0.1035743034832535</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04798487608521216</v>
+        <v>0.04872172859018116</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1944755702.203259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2689134789.518049</v>
+        <v>1971239897.724403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09523947779484805</v>
+        <v>0.1039228994357314</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04918021615456016</v>
+        <v>0.03426117498776122</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1344567349.434738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1964937989.584125</v>
+        <v>2340347780.68306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06353002860171751</v>
+        <v>0.09689523700744777</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04433576901459012</v>
+        <v>0.04699625909492679</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>982469059.0399034</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2852258832.91362</v>
+        <v>3569133133.225044</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1414005340285545</v>
+        <v>0.2002633759644948</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02420128547707391</v>
+        <v>0.03093369381397542</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1426129458.522724</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2054555489.62031</v>
+        <v>2164888990.895634</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1402085228119828</v>
+        <v>0.1786373575209458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02321837037822099</v>
+        <v>0.03090043234227085</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1027277763.536747</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4803046020.030229</v>
+        <v>5110381130.017288</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17005083892424</v>
+        <v>0.1529495886580369</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04281051793022897</v>
+        <v>0.05010830744137011</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2401523093.761992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4115810235.377676</v>
+        <v>3037017054.458915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.131349359392357</v>
+        <v>0.1301126540147962</v>
       </c>
       <c r="G11" t="n">
-        <v>0.047907960974061</v>
+        <v>0.03791541979006133</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2057905138.158359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2054519248.208947</v>
+        <v>3100594951.881283</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1343294697752626</v>
+        <v>0.1389993425068376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04990246679415983</v>
+        <v>0.04556912790156387</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1027259555.084594</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5059678896.141807</v>
+        <v>3536548631.12915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08380095337345091</v>
+        <v>0.0795604023399355</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02943041683273994</v>
+        <v>0.02589831970172565</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2529839448.81821</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2451010669.005487</v>
+        <v>3453908102.078875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1285019426296367</v>
+        <v>0.1347765484415088</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03566790753689522</v>
+        <v>0.0337616349519838</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1225505408.388739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1508076896.599175</v>
+        <v>1485546125.933704</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09590680338805263</v>
+        <v>0.09333153459942768</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03943456769969549</v>
+        <v>0.04157651226732625</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>754038535.3332201</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1788585309.562299</v>
+        <v>2255248330.023822</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1100932991484102</v>
+        <v>0.08243987457463574</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04077938609177737</v>
+        <v>0.04505238854273384</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>894292748.9278665</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4204525866.092304</v>
+        <v>4547033418.92459</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1708892155425796</v>
+        <v>0.1267436589059702</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03752998828516705</v>
+        <v>0.03548277738622021</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2102262957.226917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2526193586.470672</v>
+        <v>2992883904.032664</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1345549030006558</v>
+        <v>0.1264193366297966</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02919738078899077</v>
+        <v>0.02524189250011206</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1263096857.493799</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>837135851.997678</v>
+        <v>1326824199.422055</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1393036504051295</v>
+        <v>0.1663947908111848</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02435789023447738</v>
+        <v>0.02245113022932408</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>418567915.3329788</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2648128878.362234</v>
+        <v>2617650910.895247</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1416593255610277</v>
+        <v>0.1486230529091623</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02688250294757939</v>
+        <v>0.03160087823254832</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1324064396.19737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2558850008.891371</v>
+        <v>1674218295.077868</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09885169780542682</v>
+        <v>0.08811133736306011</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04582228595116229</v>
+        <v>0.03992370845560333</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1279424986.678745</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2956659049.355033</v>
+        <v>2569169914.704606</v>
       </c>
       <c r="F22" t="n">
-        <v>0.124974835918466</v>
+        <v>0.1215110384637083</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05664081588474143</v>
+        <v>0.05236075842555462</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1478329588.507612</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1488949295.711182</v>
+        <v>1328934677.761031</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1490642050363003</v>
+        <v>0.147179554441807</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03403562709420931</v>
+        <v>0.04424188589905131</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>744474635.2834591</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3899691918.123434</v>
+        <v>2979105968.157623</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1218589326042869</v>
+        <v>0.1051621170432842</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03274197719540248</v>
+        <v>0.03735035559663025</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1949845933.488529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1081626862.378716</v>
+        <v>942906334.4977894</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1094442128526452</v>
+        <v>0.08576010895800951</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02103837493821789</v>
+        <v>0.02182907594001611</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>540813476.1217918</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1338517203.481733</v>
+        <v>1134701413.970403</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1249051289014299</v>
+        <v>0.08453005916964705</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02857743680631594</v>
+        <v>0.030378767459199</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>669258656.4204286</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3782713377.014325</v>
+        <v>3383134211.43689</v>
       </c>
       <c r="F27" t="n">
-        <v>0.144549492958711</v>
+        <v>0.1537777095538387</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01883713850221415</v>
+        <v>0.01995357789272743</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1891356709.139565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3390658846.623251</v>
+        <v>3155163900.615848</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1072546907528681</v>
+        <v>0.09214940950210956</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04830335890734053</v>
+        <v>0.0388142539525235</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1695329468.115285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4552502051.683089</v>
+        <v>5310212550.943697</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1313158161097021</v>
+        <v>0.1192277218804547</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04301668745435074</v>
+        <v>0.04056878623457311</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2276251004.046115</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2349462340.77457</v>
+        <v>2061233003.426436</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1088460071455581</v>
+        <v>0.1103282809524852</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03922849781881764</v>
+        <v>0.03035847147951276</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1174731247.333929</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1184184981.816098</v>
+        <v>1111304362.603019</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08778501487313918</v>
+        <v>0.09123263714935861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04354556362532637</v>
+        <v>0.04896201924879488</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>592092445.7885982</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1668231971.855907</v>
+        <v>1336617654.978508</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09249873287664065</v>
+        <v>0.08532437818956375</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02801984896512122</v>
+        <v>0.03749063009604835</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>834116088.80837</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2527855205.935525</v>
+        <v>1970751807.204126</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2034383486537672</v>
+        <v>0.129257525996046</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0380031549607668</v>
+        <v>0.0430508696209022</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1263927638.505312</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1423438497.275884</v>
+        <v>1085348372.634024</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1017483172865739</v>
+        <v>0.09830792002036902</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02822888797397727</v>
+        <v>0.01920435969704917</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>711719216.6459479</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>957347648.5172037</v>
+        <v>1277924385.593567</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09140402637720281</v>
+        <v>0.0901870884153847</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03133787755013086</v>
+        <v>0.02904470183137561</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>478673851.9076896</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2510670639.495686</v>
+        <v>2042655506.773576</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1112954256643881</v>
+        <v>0.1575484856068644</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02544280873087813</v>
+        <v>0.01879429513449177</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1255335340.563921</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2259890199.058668</v>
+        <v>2523933020.446303</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07416880091160896</v>
+        <v>0.07031700728028092</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03362994735729347</v>
+        <v>0.02967010477470224</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1129945162.261866</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1960953709.542161</v>
+        <v>1905311730.550861</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1174084852000715</v>
+        <v>0.08781243889824192</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03038121291465949</v>
+        <v>0.02593824966327124</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>980476838.5570712</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2192191698.580663</v>
+        <v>1668325756.714971</v>
       </c>
       <c r="F39" t="n">
-        <v>0.142314784033392</v>
+        <v>0.1367333331458851</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03148600268729142</v>
+        <v>0.0264809065606255</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1096095814.338994</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1564426378.02917</v>
+        <v>1523401302.048728</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1283609056561903</v>
+        <v>0.1374645049744455</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05194979594751557</v>
+        <v>0.05449221521763162</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>782213138.7932748</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1937124480.017885</v>
+        <v>2787694462.543116</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1531771936145014</v>
+        <v>0.1139854036319717</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02877637270225799</v>
+        <v>0.04265346067981291</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>968562320.0170765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3853912473.00675</v>
+        <v>2618933314.689602</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1067898175717837</v>
+        <v>0.112815003787398</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03494152489176953</v>
+        <v>0.04375377187774456</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1926956255.439051</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2815550882.796684</v>
+        <v>2162944011.594349</v>
       </c>
       <c r="F43" t="n">
-        <v>0.147799028963027</v>
+        <v>0.1972074047260471</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02592523566722783</v>
+        <v>0.02376628424957351</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1407775458.035465</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1722064862.396579</v>
+        <v>2119768635.151649</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1014162814939047</v>
+        <v>0.0946324460105987</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02713316724019836</v>
+        <v>0.02486349690385405</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>861032481.800789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2334584926.436876</v>
+        <v>2217886280.499264</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1632504320882926</v>
+        <v>0.1195234991337144</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04024795243824077</v>
+        <v>0.05221603419322763</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1167292487.509185</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3455639805.461674</v>
+        <v>4893338175.21887</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1076411714371305</v>
+        <v>0.1413380644100798</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04192564459373991</v>
+        <v>0.03984533194882434</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1727819840.784164</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4901769149.997277</v>
+        <v>3570265108.239848</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1318362589605844</v>
+        <v>0.173998697027587</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04214121318964605</v>
+        <v>0.04854629333052207</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2450884624.965327</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3187588690.273155</v>
+        <v>4650290712.579865</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07685102562693094</v>
+        <v>0.10790520015254</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03012092709348341</v>
+        <v>0.03439461196358033</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1593794426.372771</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1775309785.514668</v>
+        <v>1483979694.812675</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1452454053789791</v>
+        <v>0.1568406149702443</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03327788157395074</v>
+        <v>0.02701366680419167</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>887654881.5923541</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2595570749.749572</v>
+        <v>4204667751.138771</v>
       </c>
       <c r="F50" t="n">
-        <v>0.17685271200589</v>
+        <v>0.1437049485065381</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05180799682479108</v>
+        <v>0.04682790587624299</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1297785463.280362</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1166163753.326207</v>
+        <v>1038625264.863298</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1928048134555187</v>
+        <v>0.161228902696062</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03780750332321804</v>
+        <v>0.03537237761345628</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>583081933.2500861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4867461502.085507</v>
+        <v>4464174688.537251</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1361702592777208</v>
+        <v>0.1391763518506538</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05506662368742925</v>
+        <v>0.04995357119303225</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2433730756.176947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3450699313.545115</v>
+        <v>3113421503.009002</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1298940325280585</v>
+        <v>0.1614221512866529</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02856589947911892</v>
+        <v>0.02244936710179466</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1725349657.72682</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4490431892.478025</v>
+        <v>4419252550.768775</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1533569325117674</v>
+        <v>0.1049323643652039</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03903384763339449</v>
+        <v>0.0371623483504214</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2245216048.386031</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4695240281.763572</v>
+        <v>4204651381.788093</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1360900562872997</v>
+        <v>0.205731225756559</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03147565938950377</v>
+        <v>0.02142043279915882</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2347620146.171009</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1682418742.775479</v>
+        <v>1806395509.447667</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1486898269285292</v>
+        <v>0.1311751368786899</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05268165428097733</v>
+        <v>0.03776890752721115</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>841209386.358282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3592647561.091098</v>
+        <v>3239909392.663521</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1292854355306611</v>
+        <v>0.165209903429735</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02264631832220631</v>
+        <v>0.01794965441030219</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1796323834.36741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1387666166.920048</v>
+        <v>1299737980.535561</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1308298266373699</v>
+        <v>0.1883957192767668</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02672318195602787</v>
+        <v>0.03471021852021598</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>693833124.5285788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5091000046.309403</v>
+        <v>3759776232.206103</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1208141256410569</v>
+        <v>0.1262719956668453</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04497306273772284</v>
+        <v>0.03929128661627989</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2545499946.143997</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3183623549.258789</v>
+        <v>3213990885.007301</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1870162163180573</v>
+        <v>0.1638378301306983</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0276072962165103</v>
+        <v>0.03055576580610746</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1591811863.872547</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2896263624.539433</v>
+        <v>3213396708.977904</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1658840355991933</v>
+        <v>0.1227414512394375</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02976637790972227</v>
+        <v>0.0260765359898546</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1448131802.143184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1486393078.82194</v>
+        <v>1692568218.158516</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1864018172611191</v>
+        <v>0.1218968576683965</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03114215728044751</v>
+        <v>0.03256278316372443</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>743196520.0537245</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5299909026.888836</v>
+        <v>5471529982.563695</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1018434001130264</v>
+        <v>0.1055745665444619</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04558618164429998</v>
+        <v>0.03748696334565168</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2649954517.585432</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4566585326.133739</v>
+        <v>4782274571.369058</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1813179651392838</v>
+        <v>0.1252866144203821</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03086874631324222</v>
+        <v>0.03128834331502577</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2283292738.487723</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4704533701.797697</v>
+        <v>4532165740.289679</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1122275449809</v>
+        <v>0.1473885762861021</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02096892250947414</v>
+        <v>0.03021797827212945</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2352266827.127476</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3936474003.893364</v>
+        <v>3833743678.575596</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1363561534299046</v>
+        <v>0.1220754444619016</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03167898239451952</v>
+        <v>0.0441976207278258</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1968236971.796135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2795304818.442791</v>
+        <v>3490227374.380375</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08460849424093855</v>
+        <v>0.08854418680818775</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0478956921257336</v>
+        <v>0.05019476915808678</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1397652444.518195</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5361428740.212632</v>
+        <v>3728839388.940602</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1579003422517996</v>
+        <v>0.1379832463971788</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04826386052858835</v>
+        <v>0.04376168766626515</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2680714447.962923</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1803440835.561297</v>
+        <v>1973689555.940166</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1676268732627148</v>
+        <v>0.1239252382731358</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03979861682253508</v>
+        <v>0.05410357279537611</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>901720397.0262309</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3268752914.66996</v>
+        <v>3220760014.768877</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07312885487198795</v>
+        <v>0.08784857803266016</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04667433834220817</v>
+        <v>0.0329568016493464</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1634376451.497381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4581463139.906324</v>
+        <v>3594462279.269157</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1669952954423624</v>
+        <v>0.1444330811875311</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03376666002254691</v>
+        <v>0.03145055740643131</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2290731644.075246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1737059064.941366</v>
+        <v>1611404547.497599</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08828596468431693</v>
+        <v>0.07662281563347645</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04916722871521381</v>
+        <v>0.03589973778976088</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>868529520.9076877</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3253436599.168668</v>
+        <v>2443189784.399185</v>
       </c>
       <c r="F73" t="n">
-        <v>0.106298984150281</v>
+        <v>0.08514218249088815</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03660405588147808</v>
+        <v>0.04586737890825707</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1626718272.059774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3068277663.83383</v>
+        <v>2691914494.187698</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1465337674086365</v>
+        <v>0.1839469157115087</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02611919250535896</v>
+        <v>0.025482152729495</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1534138891.092263</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1864986209.615391</v>
+        <v>2044320747.608475</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1447689713562079</v>
+        <v>0.1006223587826363</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03725569137562263</v>
+        <v>0.03538530899853343</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>932493081.3532155</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4512797998.486279</v>
+        <v>5284728893.050016</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08918335064131731</v>
+        <v>0.08793205124367021</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02648265262743393</v>
+        <v>0.03145984564954196</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2256399005.116741</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1531556983.428071</v>
+        <v>2039809989.185802</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1140045113827127</v>
+        <v>0.1277814739452645</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02791856635103701</v>
+        <v>0.02206994961031238</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>765778483.7490081</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4290152237.270593</v>
+        <v>4450760262.753015</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1163433758710414</v>
+        <v>0.1083243641150003</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04610836578970313</v>
+        <v>0.04264391310763887</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2145076063.265196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1630457229.704157</v>
+        <v>1902348529.805387</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1106589314837624</v>
+        <v>0.1627765065251059</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03482145855557287</v>
+        <v>0.02650506389046239</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>815228671.5327799</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5119609020.939984</v>
+        <v>3557031720.062599</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08467069318417686</v>
+        <v>0.1072854493635466</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0298515698899231</v>
+        <v>0.03822062088321755</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2559804565.214822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4625543279.831296</v>
+        <v>4412930875.784824</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1374141617431223</v>
+        <v>0.131151514400117</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03097372213603258</v>
+        <v>0.02485803070460918</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2312771626.061799</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3620869424.63104</v>
+        <v>4665163570.551984</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2126850799440919</v>
+        <v>0.1667314153320561</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02395981097668172</v>
+        <v>0.02956541702615418</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1810434772.835518</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2033462676.061199</v>
+        <v>2276984965.522515</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1048221189686481</v>
+        <v>0.09974398323343658</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0372805742901554</v>
+        <v>0.0413444424328044</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1016731327.139473</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1749134924.439597</v>
+        <v>1589452858.731054</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09073579691034168</v>
+        <v>0.1107606809889325</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03396459310303485</v>
+        <v>0.04985162639997098</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>874567503.7043594</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3579137989.903553</v>
+        <v>2961622544.640673</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1800126214209306</v>
+        <v>0.1183024675781301</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04516338285436435</v>
+        <v>0.03921271473872841</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1789569118.649052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2475624606.702332</v>
+        <v>1868008999.347176</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1679397704276472</v>
+        <v>0.1507561755981056</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01964845599399542</v>
+        <v>0.01700963406917546</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1237812396.800999</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>912875414.90994</v>
+        <v>1381123796.427439</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1403264370690172</v>
+        <v>0.128863142079859</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03686450060180888</v>
+        <v>0.03482049583881915</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>456437689.0035594</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2471682864.614159</v>
+        <v>2784397908.517736</v>
       </c>
       <c r="F88" t="n">
-        <v>0.178766867124546</v>
+        <v>0.1691121453941375</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02852513041949279</v>
+        <v>0.02629548569392625</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1235841410.201384</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3066891713.286983</v>
+        <v>3063050595.103769</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1059813456711595</v>
+        <v>0.1520360833246495</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03790533800078259</v>
+        <v>0.02569850831012921</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1533445889.529555</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1401869255.661705</v>
+        <v>1515465265.851462</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1344661199650111</v>
+        <v>0.09196595476182999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03407742481566683</v>
+        <v>0.05097267854474118</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>700934588.2130884</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1517292976.230099</v>
+        <v>1848819407.321954</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1496646730641712</v>
+        <v>0.1527286084659386</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04498493140042836</v>
+        <v>0.05566109945389308</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>758646524.4343696</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2561613650.741307</v>
+        <v>2206909733.580038</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07308270832893206</v>
+        <v>0.09726831602799332</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03352607905700212</v>
+        <v>0.04686590496432479</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1280806813.621069</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4056810017.931401</v>
+        <v>3098850105.650185</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1243676706403068</v>
+        <v>0.12915800920285</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04706754354777886</v>
+        <v>0.04710808188631545</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2028405005.622137</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2278927897.390032</v>
+        <v>1669327672.714695</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1371579715527875</v>
+        <v>0.1292991813019803</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03590593768294169</v>
+        <v>0.03549305482432309</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1139463983.064742</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2472827462.483774</v>
+        <v>2600695344.108658</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1161692973096695</v>
+        <v>0.1008163448655539</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03882546519265733</v>
+        <v>0.04440861076508035</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1236413768.980078</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1927432599.908699</v>
+        <v>2286912440.152905</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1043223713284598</v>
+        <v>0.1206855971444359</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03991582465391421</v>
+        <v>0.04620685528340393</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>963716294.3470153</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4157311393.261702</v>
+        <v>3238864901.761603</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1185588972912815</v>
+        <v>0.1529962030443385</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02018663495145192</v>
+        <v>0.02358877506993348</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2078655765.359466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3152238303.803423</v>
+        <v>3361905044.209799</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09186319247655705</v>
+        <v>0.104381123525081</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02019845302207376</v>
+        <v>0.02756741076675571</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1576119146.592136</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3386743401.999833</v>
+        <v>2671826520.715917</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1112660349013496</v>
+        <v>0.1333369097688902</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03203732848163304</v>
+        <v>0.03458787217237347</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1693371714.786997</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4071695983.487926</v>
+        <v>3504652680.395869</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1146978380875842</v>
+        <v>0.1226953788077537</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02509264530724461</v>
+        <v>0.021000122916961</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2035848067.813598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2462661906.404192</v>
+        <v>2846392729.984203</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2117025857954816</v>
+        <v>0.1488790431864681</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03684346542569959</v>
+        <v>0.05108185851279149</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1231330970.909388</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_15.xlsx
+++ b/output/fit_clients/fit_round_15.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1603126347.034993</v>
+        <v>1861848932.091711</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0899526646527944</v>
+        <v>0.07918976591342457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03111145273710034</v>
+        <v>0.03673370950228713</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1685911479.066406</v>
+        <v>1920681068.430089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1670336740585982</v>
+        <v>0.150386825411141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03550313633041723</v>
+        <v>0.04964148495720025</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4237399067.107756</v>
+        <v>4886530819.175075</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1217451680466398</v>
+        <v>0.1276076416871192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03162240298627168</v>
+        <v>0.02472003119486855</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2906489547.599524</v>
+        <v>2937029749.28523</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1035743034832535</v>
+        <v>0.09874075024815679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04872172859018116</v>
+        <v>0.03298994052860803</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1971239897.724403</v>
+        <v>2863171771.883874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1039228994357314</v>
+        <v>0.131297894429714</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03426117498776122</v>
+        <v>0.04121180028905974</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2340347780.68306</v>
+        <v>2111633259.077521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09689523700744777</v>
+        <v>0.092823188508599</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04699625909492679</v>
+        <v>0.03815234545873952</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3569133133.225044</v>
+        <v>3011664708.663281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2002633759644948</v>
+        <v>0.1925933270969717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03093369381397542</v>
+        <v>0.02443152015361856</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2164888990.895634</v>
+        <v>1697821275.602193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1786373575209458</v>
+        <v>0.1486954068767725</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03090043234227085</v>
+        <v>0.02906985514273107</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5110381130.017288</v>
+        <v>5008277612.002476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1529495886580369</v>
+        <v>0.1888496898162038</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05010830744137011</v>
+        <v>0.05255325264432654</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3037017054.458915</v>
+        <v>4164563541.546666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1301126540147962</v>
+        <v>0.1531440352604784</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03791541979006133</v>
+        <v>0.03499205817817273</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3100594951.881283</v>
+        <v>2658359535.406561</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1389993425068376</v>
+        <v>0.1384719586801518</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04556912790156387</v>
+        <v>0.05125901222567414</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3536548631.12915</v>
+        <v>5299705379.384266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0795604023399355</v>
+        <v>0.09335824047854825</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02589831970172565</v>
+        <v>0.01958365519909291</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3453908102.078875</v>
+        <v>2488053924.744078</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1347765484415088</v>
+        <v>0.1172970105449058</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0337616349519838</v>
+        <v>0.03789670774331323</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1485546125.933704</v>
+        <v>1716711257.896576</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09333153459942768</v>
+        <v>0.1088823225098343</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04157651226732625</v>
+        <v>0.03216354613398738</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2255248330.023822</v>
+        <v>2840381796.782953</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08243987457463574</v>
+        <v>0.08206799090707723</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04505238854273384</v>
+        <v>0.03828695733090064</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4547033418.92459</v>
+        <v>5020643586.328577</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1267436589059702</v>
+        <v>0.1427648598810142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03548277738622021</v>
+        <v>0.0338013024926988</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2992883904.032664</v>
+        <v>2966168167.482266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1264193366297966</v>
+        <v>0.1463326487192108</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02524189250011206</v>
+        <v>0.02780916398185401</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1326824199.422055</v>
+        <v>1265813735.700461</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1663947908111848</v>
+        <v>0.183487847012328</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02245113022932408</v>
+        <v>0.0205697068446248</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2617650910.895247</v>
+        <v>2213088759.121444</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1486230529091623</v>
+        <v>0.1080002960462372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03160087823254832</v>
+        <v>0.02834489131121628</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1674218295.077868</v>
+        <v>1946338327.060598</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08811133736306011</v>
+        <v>0.1001087955339428</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03992370845560333</v>
+        <v>0.03843312628635626</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2569169914.704606</v>
+        <v>3087995395.082337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1215110384637083</v>
+        <v>0.09512837718444722</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05236075842555462</v>
+        <v>0.0370117624642744</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1328934677.761031</v>
+        <v>1481938208.141387</v>
       </c>
       <c r="F23" t="n">
-        <v>0.147179554441807</v>
+        <v>0.1852886384212616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04424188589905131</v>
+        <v>0.05188964076322432</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2979105968.157623</v>
+        <v>4044611677.355386</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1051621170432842</v>
+        <v>0.1438932177411446</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03735035559663025</v>
+        <v>0.02498385424173778</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>942906334.4977894</v>
+        <v>1346919836.757168</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08576010895800951</v>
+        <v>0.07753791154945278</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02182907594001611</v>
+        <v>0.02763043750751618</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1134701413.970403</v>
+        <v>1247257306.02732</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08453005916964705</v>
+        <v>0.1104986982397959</v>
       </c>
       <c r="G26" t="n">
-        <v>0.030378767459199</v>
+        <v>0.02705653105824198</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3383134211.43689</v>
+        <v>3550455814.846317</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1537777095538387</v>
+        <v>0.1370347942580849</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01995357789272743</v>
+        <v>0.01841796110449264</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3155163900.615848</v>
+        <v>2349210247.838671</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09214940950210956</v>
+        <v>0.1336006812260883</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0388142539525235</v>
+        <v>0.0471724644306428</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5310212550.943697</v>
+        <v>4272528759.179342</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1192277218804547</v>
+        <v>0.1138642685475142</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04056878623457311</v>
+        <v>0.04609533912056257</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2061233003.426436</v>
+        <v>2007041380.89075</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1103282809524852</v>
+        <v>0.1187542538996805</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03035847147951276</v>
+        <v>0.02938539702692711</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1111304362.603019</v>
+        <v>1039759109.292485</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09123263714935861</v>
+        <v>0.1110228350514851</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04896201924879488</v>
+        <v>0.04963619743450042</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1336617654.978508</v>
+        <v>1424653269.006789</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08532437818956375</v>
+        <v>0.07279217920473173</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03749063009604835</v>
+        <v>0.02910045823653213</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1970751807.204126</v>
+        <v>2921566798.222605</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129257525996046</v>
+        <v>0.1391636880509672</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0430508696209022</v>
+        <v>0.05269220773096463</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1085348372.634024</v>
+        <v>1149988390.164252</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09830792002036902</v>
+        <v>0.08478814818709382</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01920435969704917</v>
+        <v>0.02124447914461517</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1277924385.593567</v>
+        <v>1095265525.058826</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0901870884153847</v>
+        <v>0.07747073634619155</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02904470183137561</v>
+        <v>0.03011921872702611</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2042655506.773576</v>
+        <v>2640556202.116267</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1575484856068644</v>
+        <v>0.1548967805182448</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01879429513449177</v>
+        <v>0.02331514909300944</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2523933020.446303</v>
+        <v>1959373435.721434</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07031700728028092</v>
+        <v>0.08089595129771941</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02967010477470224</v>
+        <v>0.0398038485975442</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1905311730.550861</v>
+        <v>1528693242.824023</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08781243889824192</v>
+        <v>0.1193512326156126</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02593824966327124</v>
+        <v>0.03703377052884933</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1668325756.714971</v>
+        <v>1558495287.903208</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1367333331458851</v>
+        <v>0.1471542831646195</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0264809065606255</v>
+        <v>0.01994683596596472</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1523401302.048728</v>
+        <v>1507945275.491064</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1374645049744455</v>
+        <v>0.1498064796709701</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05449221521763162</v>
+        <v>0.05078719584231584</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2787694462.543116</v>
+        <v>1778314896.302221</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1139854036319717</v>
+        <v>0.1133699849761716</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04265346067981291</v>
+        <v>0.04038080648620175</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2618933314.689602</v>
+        <v>2683214177.839735</v>
       </c>
       <c r="F42" t="n">
-        <v>0.112815003787398</v>
+        <v>0.09666603699294266</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04375377187774456</v>
+        <v>0.03715917093643942</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2162944011.594349</v>
+        <v>1948124823.764067</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1972074047260471</v>
+        <v>0.1499454523444406</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02376628424957351</v>
+        <v>0.02268376190833892</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2119768635.151649</v>
+        <v>1596977697.063033</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0946324460105987</v>
+        <v>0.09320383559338752</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02486349690385405</v>
+        <v>0.03561637580434587</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2217886280.499264</v>
+        <v>1660188537.88843</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1195234991337144</v>
+        <v>0.1662324594211343</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05221603419322763</v>
+        <v>0.03789444823362966</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4893338175.21887</v>
+        <v>4388582050.470622</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1413380644100798</v>
+        <v>0.1235890142008296</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03984533194882434</v>
+        <v>0.04155869282558419</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3570265108.239848</v>
+        <v>4378743502.596072</v>
       </c>
       <c r="F47" t="n">
-        <v>0.173998697027587</v>
+        <v>0.1429314947497458</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04854629333052207</v>
+        <v>0.04739999469192652</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4650290712.579865</v>
+        <v>3273606398.341833</v>
       </c>
       <c r="F48" t="n">
-        <v>0.10790520015254</v>
+        <v>0.1019020488591762</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03439461196358033</v>
+        <v>0.03055758368307161</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1483979694.812675</v>
+        <v>1210814933.638319</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1568406149702443</v>
+        <v>0.1206889688217145</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02701366680419167</v>
+        <v>0.04424382877006441</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4204667751.138771</v>
+        <v>3454823191.688654</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1437049485065381</v>
+        <v>0.1438067187526297</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04682790587624299</v>
+        <v>0.04630802576349657</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1038625264.863298</v>
+        <v>1038370087.051905</v>
       </c>
       <c r="F51" t="n">
-        <v>0.161228902696062</v>
+        <v>0.1674819779077922</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03537237761345628</v>
+        <v>0.04534474913604383</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4464174688.537251</v>
+        <v>3511393398.852858</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1391763518506538</v>
+        <v>0.1314477465959889</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04995357119303225</v>
+        <v>0.04700861685071741</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3113421503.009002</v>
+        <v>3280145277.624344</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1614221512866529</v>
+        <v>0.1665781526471403</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02244936710179466</v>
+        <v>0.02877983542735798</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4419252550.768775</v>
+        <v>4023748427.006814</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1049323643652039</v>
+        <v>0.1656298141067901</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0371623483504214</v>
+        <v>0.042266342847582</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4204651381.788093</v>
+        <v>4520741318.240754</v>
       </c>
       <c r="F55" t="n">
-        <v>0.205731225756559</v>
+        <v>0.1813302112417391</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02142043279915882</v>
+        <v>0.03198615286233319</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1806395509.447667</v>
+        <v>1235414906.510381</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1311751368786899</v>
+        <v>0.1113062336046717</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03776890752721115</v>
+        <v>0.05717142674221008</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3239909392.663521</v>
+        <v>3617895592.815634</v>
       </c>
       <c r="F57" t="n">
-        <v>0.165209903429735</v>
+        <v>0.125676614498777</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01794965441030219</v>
+        <v>0.02418809675117136</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1299737980.535561</v>
+        <v>1459521761.988346</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1883957192767668</v>
+        <v>0.1912738959921676</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03471021852021598</v>
+        <v>0.0345633736656786</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3759776232.206103</v>
+        <v>3764351227.873268</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1262719956668453</v>
+        <v>0.105284325450599</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03929128661627989</v>
+        <v>0.03068873300141069</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3213990885.007301</v>
+        <v>3447465189.932008</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1638378301306983</v>
+        <v>0.1845363685876762</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03055576580610746</v>
+        <v>0.0261152822368735</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3213396708.977904</v>
+        <v>2692457283.5652</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1227414512394375</v>
+        <v>0.1097348299649642</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0260765359898546</v>
+        <v>0.02790703885165355</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1692568218.158516</v>
+        <v>1903168538.119379</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1218968576683965</v>
+        <v>0.1407717317698933</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03256278316372443</v>
+        <v>0.04426498611438463</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5471529982.563695</v>
+        <v>3522687830.534879</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1055745665444619</v>
+        <v>0.0942221619584795</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03748696334565168</v>
+        <v>0.0386385920454459</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4782274571.369058</v>
+        <v>4056581867.495915</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1252866144203821</v>
+        <v>0.1562099658136131</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03128834331502577</v>
+        <v>0.02723828950756482</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4532165740.289679</v>
+        <v>5259264026.188691</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1473885762861021</v>
+        <v>0.1070886783199715</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03021797827212945</v>
+        <v>0.02972410325051878</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3833743678.575596</v>
+        <v>4522577321.382811</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1220754444619016</v>
+        <v>0.1138000430981483</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0441976207278258</v>
+        <v>0.04987190207122948</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3490227374.380375</v>
+        <v>2463182542.322981</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08854418680818775</v>
+        <v>0.08083254326589853</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05019476915808678</v>
+        <v>0.04958449736419204</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3728839388.940602</v>
+        <v>4174313623.280448</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1379832463971788</v>
+        <v>0.1127407723873723</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04376168766626515</v>
+        <v>0.04289893073227974</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1973689555.940166</v>
+        <v>1557065339.023773</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1239252382731358</v>
+        <v>0.1144810737837454</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05410357279537611</v>
+        <v>0.05143956771350774</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3220760014.768877</v>
+        <v>3197402769.292992</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08784857803266016</v>
+        <v>0.07343360434778877</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0329568016493464</v>
+        <v>0.04438265517011163</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3594462279.269157</v>
+        <v>5456680235.106072</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1444330811875311</v>
+        <v>0.1344051356580609</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03145055740643131</v>
+        <v>0.0257414076511977</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1611404547.497599</v>
+        <v>1601452727.549595</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07662281563347645</v>
+        <v>0.1032819343981112</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03589973778976088</v>
+        <v>0.03459208990435774</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2443189784.399185</v>
+        <v>2162939708.423638</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08514218249088815</v>
+        <v>0.1008184648771895</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04586737890825707</v>
+        <v>0.04569885687328307</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2691914494.187698</v>
+        <v>3013536843.67376</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1839469157115087</v>
+        <v>0.1139116573973072</v>
       </c>
       <c r="G74" t="n">
-        <v>0.025482152729495</v>
+        <v>0.03542922256132511</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2044320747.608475</v>
+        <v>1987805501.784074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1006223587826363</v>
+        <v>0.1307866469516403</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03538530899853343</v>
+        <v>0.03340024797547347</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5284728893.050016</v>
+        <v>4290383340.007288</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08793205124367021</v>
+        <v>0.08608535770325648</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03145984564954196</v>
+        <v>0.03249506889206927</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2039809989.185802</v>
+        <v>2185232001.969169</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1277814739452645</v>
+        <v>0.1845640711557468</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02206994961031238</v>
+        <v>0.02918583962899214</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4450760262.753015</v>
+        <v>3626746665.559678</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1083243641150003</v>
+        <v>0.1372073697700407</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04264391310763887</v>
+        <v>0.04659768314253342</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1902348529.805387</v>
+        <v>1457106955.61277</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1627765065251059</v>
+        <v>0.1104212510789781</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02650506389046239</v>
+        <v>0.03233458941763521</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3557031720.062599</v>
+        <v>4696457942.458384</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072854493635466</v>
+        <v>0.09470732150790287</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03822062088321755</v>
+        <v>0.03208802700719749</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4412930875.784824</v>
+        <v>4351632466.875015</v>
       </c>
       <c r="F81" t="n">
-        <v>0.131151514400117</v>
+        <v>0.0871827423475444</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02485803070460918</v>
+        <v>0.02184799761635972</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4665163570.551984</v>
+        <v>4885114130.550776</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1667314153320561</v>
+        <v>0.1448690874344651</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02956541702615418</v>
+        <v>0.02433045304941266</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2276984965.522515</v>
+        <v>2432967502.28327</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09974398323343658</v>
+        <v>0.1350419384009903</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0413444424328044</v>
+        <v>0.04515063203609344</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1589452858.731054</v>
+        <v>2137294443.948112</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1107606809889325</v>
+        <v>0.08861759330655643</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04985162639997098</v>
+        <v>0.04171927550412582</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2961622544.640673</v>
+        <v>3290007255.940518</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1183024675781301</v>
+        <v>0.1660056887773339</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03921271473872841</v>
+        <v>0.05208279950529211</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1868008999.347176</v>
+        <v>2728319408.176524</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1507561755981056</v>
+        <v>0.1660429443034275</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01700963406917546</v>
+        <v>0.01676813507449397</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1381123796.427439</v>
+        <v>926952578.6459183</v>
       </c>
       <c r="F87" t="n">
-        <v>0.128863142079859</v>
+        <v>0.1794713889162044</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03482049583881915</v>
+        <v>0.03185333999659364</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2784397908.517736</v>
+        <v>3714778462.415975</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1691121453941375</v>
+        <v>0.1327676320339846</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02629548569392625</v>
+        <v>0.02784940717365908</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3063050595.103769</v>
+        <v>2136051437.223013</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1520360833246495</v>
+        <v>0.1574860818180769</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02569850831012921</v>
+        <v>0.02805203949279304</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1515465265.851462</v>
+        <v>2089910515.28347</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09196595476182999</v>
+        <v>0.1148980131270632</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05097267854474118</v>
+        <v>0.05393140136753503</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1848819407.321954</v>
+        <v>2055355932.382092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1527286084659386</v>
+        <v>0.1933188805848154</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05566109945389308</v>
+        <v>0.04773138452968916</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2206909733.580038</v>
+        <v>3003997611.405947</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09726831602799332</v>
+        <v>0.07712273412067175</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04686590496432479</v>
+        <v>0.03704245123268918</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3098850105.650185</v>
+        <v>4942063023.86821</v>
       </c>
       <c r="F93" t="n">
-        <v>0.12915800920285</v>
+        <v>0.1343062477381718</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04710808188631545</v>
+        <v>0.05344026516693512</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1669327672.714695</v>
+        <v>1953671010.548629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1292991813019803</v>
+        <v>0.1018937939748476</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03549305482432309</v>
+        <v>0.0351882322840999</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2600695344.108658</v>
+        <v>2616112347.62028</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1008163448655539</v>
+        <v>0.1024898713414755</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04440861076508035</v>
+        <v>0.04058388612233524</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2286912440.152905</v>
+        <v>1550180313.66752</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1206855971444359</v>
+        <v>0.1297706989298225</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04620685528340393</v>
+        <v>0.03223605978309868</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3238864901.761603</v>
+        <v>4830254193.879172</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1529962030443385</v>
+        <v>0.1761750759406519</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02358877506993348</v>
+        <v>0.02453032389472361</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3361905044.209799</v>
+        <v>2481674269.675928</v>
       </c>
       <c r="F98" t="n">
-        <v>0.104381123525081</v>
+        <v>0.08271256589391993</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02756741076675571</v>
+        <v>0.02564969223655197</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2671826520.715917</v>
+        <v>3409457281.192932</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1333369097688902</v>
+        <v>0.1261521305559133</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03458787217237347</v>
+        <v>0.02789863792009157</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3504652680.395869</v>
+        <v>4278891940.443204</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1226953788077537</v>
+        <v>0.1211764264191231</v>
       </c>
       <c r="G100" t="n">
-        <v>0.021000122916961</v>
+        <v>0.02602755015469663</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2846392729.984203</v>
+        <v>2467839333.203418</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1488790431864681</v>
+        <v>0.2144383631590454</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05108185851279149</v>
+        <v>0.03744843863893287</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_15.xlsx
+++ b/output/fit_clients/fit_round_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1861848932.091711</v>
+        <v>2001515180.259197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07918976591342457</v>
+        <v>0.09730669987209185</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03673370950228713</v>
+        <v>0.03609534940379725</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1920681068.430089</v>
+        <v>2350262605.543627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.150386825411141</v>
+        <v>0.1305948048046479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04964148495720025</v>
+        <v>0.04866705228161294</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4886530819.175075</v>
+        <v>5090020667.287619</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1276076416871192</v>
+        <v>0.1638108242924773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02472003119486855</v>
+        <v>0.03805716057973489</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.9828391431521</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2937029749.28523</v>
+        <v>3987522413.137855</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09874075024815679</v>
+        <v>0.06922973100328075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03298994052860803</v>
+        <v>0.03884646757021596</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2863171771.883874</v>
+        <v>2446589179.499686</v>
       </c>
       <c r="F6" t="n">
-        <v>0.131297894429714</v>
+        <v>0.118195505703313</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04121180028905974</v>
+        <v>0.04275727733468815</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2111633259.077521</v>
+        <v>2330367538.128343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.092823188508599</v>
+        <v>0.08371445319304074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03815234545873952</v>
+        <v>0.03467871018383723</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3011664708.663281</v>
+        <v>3760195665.31432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1925933270969717</v>
+        <v>0.1684221228628714</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02443152015361856</v>
+        <v>0.02426398669391562</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1697821275.602193</v>
+        <v>1603899707.905041</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1486954068767725</v>
+        <v>0.1538040667912956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02906985514273107</v>
+        <v>0.03097054413502382</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5008277612.002476</v>
+        <v>4524884517.0734</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1888496898162038</v>
+        <v>0.1921546337507115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05255325264432654</v>
+        <v>0.04173668762569832</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.0464405081011</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4164563541.546666</v>
+        <v>2633223944.271927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1531440352604784</v>
+        <v>0.1457299916158826</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03499205817817273</v>
+        <v>0.03051281809922502</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2658359535.406561</v>
+        <v>2410641812.958855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1384719586801518</v>
+        <v>0.1917591586716184</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05125901222567414</v>
+        <v>0.04518287277075081</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5299705379.384266</v>
+        <v>3310764357.191751</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09335824047854825</v>
+        <v>0.09590817785145135</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01958365519909291</v>
+        <v>0.02402703563234946</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2488053924.744078</v>
+        <v>2402968885.079542</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1172970105449058</v>
+        <v>0.1176627279766974</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03789670774331323</v>
+        <v>0.04011805222564204</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1716711257.896576</v>
+        <v>1497146999.719845</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1088823225098343</v>
+        <v>0.09798146342863101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03216354613398738</v>
+        <v>0.04319259847417204</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2840381796.782953</v>
+        <v>1824713576.490188</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08206799090707723</v>
+        <v>0.07901811103023897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03828695733090064</v>
+        <v>0.03424164729095245</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5020643586.328577</v>
+        <v>3421256275.839605</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1427648598810142</v>
+        <v>0.1339515996060592</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0338013024926988</v>
+        <v>0.04306344774496405</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>153.5808458828536</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2966168167.482266</v>
+        <v>3995727116.160651</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1463326487192108</v>
+        <v>0.1770019650642049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02780916398185401</v>
+        <v>0.03295051803853982</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>210.8027195319243</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1265813735.700461</v>
+        <v>1362420737.967713</v>
       </c>
       <c r="F19" t="n">
-        <v>0.183487847012328</v>
+        <v>0.117311320072231</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0205697068446248</v>
+        <v>0.01805185189667766</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2213088759.121444</v>
+        <v>2571380778.776904</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1080002960462372</v>
+        <v>0.1419451266938562</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02834489131121628</v>
+        <v>0.02027713742953626</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1946338327.060598</v>
+        <v>2686506663.568014</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1001087955339428</v>
+        <v>0.09656187155191787</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03843312628635626</v>
+        <v>0.04295455098436255</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3087995395.082337</v>
+        <v>2827353755.189808</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09512837718444722</v>
+        <v>0.09520059786048288</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0370117624642744</v>
+        <v>0.04105917234433078</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1481938208.141387</v>
+        <v>1111926402.070665</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1852886384212616</v>
+        <v>0.1768903457356722</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05188964076322432</v>
+        <v>0.05018904608474981</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4044611677.355386</v>
+        <v>2514371025.681196</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1438932177411446</v>
+        <v>0.09293784723213107</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02498385424173778</v>
+        <v>0.02743761811619394</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>82.9961883350268</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1346919836.757168</v>
+        <v>1027796309.430594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07753791154945278</v>
+        <v>0.09627948861232589</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02763043750751618</v>
+        <v>0.02528607560255611</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1247257306.02732</v>
+        <v>1302325001.745935</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1104986982397959</v>
+        <v>0.1152535310666953</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02705653105824198</v>
+        <v>0.02545036992516432</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3550455814.846317</v>
+        <v>4486627003.824026</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1370347942580849</v>
+        <v>0.1555069935189181</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01841796110449264</v>
+        <v>0.02403709344406113</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2349210247.838671</v>
+        <v>3718008169.776387</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1336006812260883</v>
+        <v>0.1013464183705358</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0471724644306428</v>
+        <v>0.04295467552546135</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4272528759.179342</v>
+        <v>5236104951.551446</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1138642685475142</v>
+        <v>0.1199005988554703</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04609533912056257</v>
+        <v>0.03512104150531567</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9608096140967</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2007041380.89075</v>
+        <v>2119659264.759621</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1187542538996805</v>
+        <v>0.1245672135096447</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02938539702692711</v>
+        <v>0.03685151993627654</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1039759109.292485</v>
+        <v>1305979685.100252</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1110228350514851</v>
+        <v>0.07977428284349462</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04963619743450042</v>
+        <v>0.04088816465336054</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1424653269.006789</v>
+        <v>1362399395.767091</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07279217920473173</v>
+        <v>0.1078238696672773</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02910045823653213</v>
+        <v>0.03354629698313643</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2921566798.222605</v>
+        <v>2342863030.157822</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1391636880509672</v>
+        <v>0.1489797219535594</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05269220773096463</v>
+        <v>0.05982384123884549</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1149988390.164252</v>
+        <v>1216857733.179029</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08478814818709382</v>
+        <v>0.117428091319424</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02124447914461517</v>
+        <v>0.02142148760616532</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1095265525.058826</v>
+        <v>936783887.4428285</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07747073634619155</v>
+        <v>0.07150900217561917</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03011921872702611</v>
+        <v>0.03304933004726368</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2640556202.116267</v>
+        <v>2632505606.134245</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1548967805182448</v>
+        <v>0.1389174213158561</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02331514909300944</v>
+        <v>0.02334439495017497</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1959373435.721434</v>
+        <v>2400675211.974627</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08089595129771941</v>
+        <v>0.1003472071927587</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0398038485975442</v>
+        <v>0.03935810095522963</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1528693242.824023</v>
+        <v>1563888388.3499</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1193512326156126</v>
+        <v>0.0859374103351193</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03703377052884933</v>
+        <v>0.02855578192390189</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1558495287.903208</v>
+        <v>2161068186.969756</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1471542831646195</v>
+        <v>0.1772759174246838</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01994683596596472</v>
+        <v>0.02508952462243871</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1507945275.491064</v>
+        <v>1235583511.262628</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1498064796709701</v>
+        <v>0.1276683908208811</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05078719584231584</v>
+        <v>0.0486770302502269</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1778314896.302221</v>
+        <v>2627998070.005063</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1133699849761716</v>
+        <v>0.1216347201027263</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04038080648620175</v>
+        <v>0.03611760166384099</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2683214177.839735</v>
+        <v>3749084987.324532</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09666603699294266</v>
+        <v>0.1242035839888598</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03715917093643942</v>
+        <v>0.04258940650516072</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1948124823.764067</v>
+        <v>2442617615.987741</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1499454523444406</v>
+        <v>0.1921937409955064</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02268376190833892</v>
+        <v>0.01851902048882792</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1596977697.063033</v>
+        <v>1843470799.501482</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09320383559338752</v>
+        <v>0.08981100883102051</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03561637580434587</v>
+        <v>0.02658934676315759</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1660188537.88843</v>
+        <v>2124702920.323278</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1662324594211343</v>
+        <v>0.1563161016825562</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03789444823362966</v>
+        <v>0.05210798934566288</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4388582050.470622</v>
+        <v>5322747236.810885</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1235890142008296</v>
+        <v>0.1157027866585272</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04155869282558419</v>
+        <v>0.04980767507791108</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>14</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.2052990601877</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4378743502.596072</v>
+        <v>3282829990.84783</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1429314947497458</v>
+        <v>0.1234347074791518</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04739999469192652</v>
+        <v>0.05254296957168099</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3273606398.341833</v>
+        <v>3696222511.588311</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1019020488591762</v>
+        <v>0.09668136658654265</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03055758368307161</v>
+        <v>0.02699033888649078</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1210814933.638319</v>
+        <v>1490681242.189207</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1206889688217145</v>
+        <v>0.1839194927327559</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04424382877006441</v>
+        <v>0.03324323664595381</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3454823191.688654</v>
+        <v>3223748680.853397</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1438067187526297</v>
+        <v>0.1547778531509877</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04630802576349657</v>
+        <v>0.04012045169205218</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1038370087.051905</v>
+        <v>1117245881.074848</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1674819779077922</v>
+        <v>0.1192548357685923</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04534474913604383</v>
+        <v>0.05032741223409152</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3511393398.852858</v>
+        <v>3976400439.545216</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1314477465959889</v>
+        <v>0.09989620814926788</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04700861685071741</v>
+        <v>0.04767173940247919</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.5752356990433</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3280145277.624344</v>
+        <v>3643133167.559742</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1665781526471403</v>
+        <v>0.171155211533953</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02877983542735798</v>
+        <v>0.03468012173229296</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4023748427.006814</v>
+        <v>3587992254.621323</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1656298141067901</v>
+        <v>0.1119890210119528</v>
       </c>
       <c r="G54" t="n">
-        <v>0.042266342847582</v>
+        <v>0.03837957123857001</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>14</v>
+      </c>
+      <c r="K54" t="n">
+        <v>179.6048035608648</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4520741318.240754</v>
+        <v>3563515184.171699</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1813302112417391</v>
+        <v>0.2107733296549335</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03198615286233319</v>
+        <v>0.02100748984222086</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14</v>
+      </c>
+      <c r="K55" t="n">
+        <v>155.5390033023131</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1235414906.510381</v>
+        <v>1883575146.494765</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1113062336046717</v>
+        <v>0.1347163244399339</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05717142674221008</v>
+        <v>0.05591713787533411</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3617895592.815634</v>
+        <v>4139951009.431401</v>
       </c>
       <c r="F57" t="n">
-        <v>0.125676614498777</v>
+        <v>0.1497235582863387</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02418809675117136</v>
+        <v>0.02492301522949643</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1459521761.988346</v>
+        <v>1153963552.511558</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1912738959921676</v>
+        <v>0.1688710600142933</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0345633736656786</v>
+        <v>0.02913002193693455</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3764351227.873268</v>
+        <v>3883431206.178266</v>
       </c>
       <c r="F59" t="n">
-        <v>0.105284325450599</v>
+        <v>0.09082905626440475</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03068873300141069</v>
+        <v>0.03563713063093112</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14</v>
+      </c>
+      <c r="K59" t="n">
+        <v>187.0555616463474</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3447465189.932008</v>
+        <v>3486495032.014624</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1845363685876762</v>
+        <v>0.149986201710118</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0261152822368735</v>
+        <v>0.02311856082243549</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2692457283.5652</v>
+        <v>3247098613.675804</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1097348299649642</v>
+        <v>0.143729783729113</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02790703885165355</v>
+        <v>0.02202999741119828</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1903168538.119379</v>
+        <v>1452538662.993781</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1407717317698933</v>
+        <v>0.1243816696603587</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04426498611438463</v>
+        <v>0.03251855638199487</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3522687830.534879</v>
+        <v>5197535629.613538</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0942221619584795</v>
+        <v>0.1021851168291338</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0386385920454459</v>
+        <v>0.03888140799642319</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>15</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4056581867.495915</v>
+        <v>5421511022.971421</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1562099658136131</v>
+        <v>0.1287022987898391</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02723828950756482</v>
+        <v>0.03249231393112197</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>15</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5259264026.188691</v>
+        <v>3991585453.29836</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1070886783199715</v>
+        <v>0.1639651695852249</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02972410325051878</v>
+        <v>0.03059992416657792</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>14</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5521881400298</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4522577321.382811</v>
+        <v>4420511082.660625</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1138000430981483</v>
+        <v>0.1347066135129926</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04987190207122948</v>
+        <v>0.04506894863267059</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>15</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2463182542.322981</v>
+        <v>2110910630.940765</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08083254326589853</v>
+        <v>0.08949602409930389</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04958449736419204</v>
+        <v>0.048555060320484</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4174313623.280448</v>
+        <v>3793283815.556071</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1127407723873723</v>
+        <v>0.1409275225372355</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04289893073227974</v>
+        <v>0.04507780871321397</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1557065339.023773</v>
+        <v>1796138633.599855</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1144810737837454</v>
+        <v>0.1362247028395529</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05143956771350774</v>
+        <v>0.04987333579043619</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3197402769.292992</v>
+        <v>2675247053.122789</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07343360434778877</v>
+        <v>0.06576630317554737</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04438265517011163</v>
+        <v>0.0375298994384628</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5456680235.106072</v>
+        <v>4751326215.259803</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1344051356580609</v>
+        <v>0.1495764996667711</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0257414076511977</v>
+        <v>0.02177368587841273</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.5714023951654</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1601452727.549595</v>
+        <v>1439903125.958758</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1032819343981112</v>
+        <v>0.08606073117659162</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03459208990435774</v>
+        <v>0.05208856991654606</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2162939708.423638</v>
+        <v>2523666523.023764</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1008184648771895</v>
+        <v>0.1070436578150244</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04569885687328307</v>
+        <v>0.03391558739962277</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3013536843.67376</v>
+        <v>3340053222.693943</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1139116573973072</v>
+        <v>0.1281801752285485</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03542922256132511</v>
+        <v>0.02620712342367902</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14</v>
+      </c>
+      <c r="K74" t="n">
+        <v>157.5959108847994</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1987805501.784074</v>
+        <v>2042929419.929066</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1307866469516403</v>
+        <v>0.1540086628433841</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03340024797547347</v>
+        <v>0.0282469990843148</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4290383340.007288</v>
+        <v>4060594691.355566</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08608535770325648</v>
+        <v>0.0778286286867446</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03249506889206927</v>
+        <v>0.02601180074124568</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>15</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2185232001.969169</v>
+        <v>1653356807.207369</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1845640711557468</v>
+        <v>0.1460315922065224</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02918583962899214</v>
+        <v>0.03183129575697933</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3189,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3626746665.559678</v>
+        <v>4689803755.882123</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1372073697700407</v>
+        <v>0.1063305584935112</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04659768314253342</v>
+        <v>0.04056945717030443</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>15</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1457106955.61277</v>
+        <v>1899614605.017294</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1104212510789781</v>
+        <v>0.1492641634230378</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03233458941763521</v>
+        <v>0.0301616474836723</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3259,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4696457942.458384</v>
+        <v>3390400524.386828</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09470732150790287</v>
+        <v>0.1060604341343938</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03208802700719749</v>
+        <v>0.02993224101740002</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14</v>
+      </c>
+      <c r="K80" t="n">
+        <v>128.5696525943749</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4351632466.875015</v>
+        <v>3507744762.552753</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0871827423475444</v>
+        <v>0.100585507970783</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02184799761635972</v>
+        <v>0.02622293991698935</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14</v>
+      </c>
+      <c r="K81" t="n">
+        <v>139.5116930474917</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3333,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4885114130.550776</v>
+        <v>4322913537.004678</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1448690874344651</v>
+        <v>0.1363948281274088</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02433045304941266</v>
+        <v>0.02822363347757951</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2432967502.28327</v>
+        <v>1744029568.637508</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1350419384009903</v>
+        <v>0.1127441120368818</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04515063203609344</v>
+        <v>0.0316551689286841</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2137294443.948112</v>
+        <v>1968633551.057785</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08861759330655643</v>
+        <v>0.08138926676322379</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04171927550412582</v>
+        <v>0.04361353229340249</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3290007255.940518</v>
+        <v>2295552900.174788</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1660056887773339</v>
+        <v>0.1587590894272349</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05208279950529211</v>
+        <v>0.03561228787374552</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2728319408.176524</v>
+        <v>2737346705.748762</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1660429443034275</v>
+        <v>0.1382601237088931</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01676813507449397</v>
+        <v>0.02077566259970745</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>926952578.6459183</v>
+        <v>986921771.3776625</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1794713889162044</v>
+        <v>0.1643096262403232</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03185333999659364</v>
+        <v>0.03411042131428026</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3714778462.415975</v>
+        <v>2517161254.189047</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1327676320339846</v>
+        <v>0.1638854831929816</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02784940717365908</v>
+        <v>0.03856431040214711</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2136051437.223013</v>
+        <v>3087141173.125344</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1574860818180769</v>
+        <v>0.1092234161902903</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02805203949279304</v>
+        <v>0.03273366915763044</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2089910515.28347</v>
+        <v>1950197982.795663</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1148980131270632</v>
+        <v>0.1170943702368024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05393140136753503</v>
+        <v>0.05076649768395769</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2055355932.382092</v>
+        <v>1557465654.001501</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1933188805848154</v>
+        <v>0.1336826212773333</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04773138452968916</v>
+        <v>0.04343603182993305</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3003997611.405947</v>
+        <v>2353404088.263042</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07712273412067175</v>
+        <v>0.09154536447644289</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03704245123268918</v>
+        <v>0.04456267881348933</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3718,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4942063023.86821</v>
+        <v>3418380543.069993</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1343062477381718</v>
+        <v>0.0889408616654237</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05344026516693512</v>
+        <v>0.03914680424822736</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>14</v>
+      </c>
+      <c r="K93" t="n">
+        <v>153.7135161071028</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1953671010.548629</v>
+        <v>1918945570.469036</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1018937939748476</v>
+        <v>0.1079558469526522</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0351882322840999</v>
+        <v>0.04222974247273421</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,22 +3784,31 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2616112347.62028</v>
+        <v>3235767204.637093</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1024898713414755</v>
+        <v>0.114073317562046</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04058388612233524</v>
+        <v>0.0469908634466279</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="n">
+        <v>126.3544545308136</v>
       </c>
     </row>
     <row r="96">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1550180313.66752</v>
+        <v>1626373944.673674</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1297706989298225</v>
+        <v>0.1356425057997805</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03223605978309868</v>
+        <v>0.04306821697549289</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4830254193.879172</v>
+        <v>4955197647.175659</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1761750759406519</v>
+        <v>0.1285007869485422</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02453032389472361</v>
+        <v>0.02823332696554044</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.5076198681495</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2481674269.675928</v>
+        <v>2497112575.687023</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08271256589391993</v>
+        <v>0.1188665439970493</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02564969223655197</v>
+        <v>0.01996605782632464</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3409457281.192932</v>
+        <v>2851844376.916717</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1261521305559133</v>
+        <v>0.1217921605845243</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02789863792009157</v>
+        <v>0.03169492506499009</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4278891940.443204</v>
+        <v>4116313085.294273</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1211764264191231</v>
+        <v>0.1355732445694082</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02602755015469663</v>
+        <v>0.01831029870845073</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>14</v>
+      </c>
+      <c r="K100" t="n">
+        <v>199.9947158618665</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2467839333.203418</v>
+        <v>2483347274.767511</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2144383631590454</v>
+        <v>0.2103103342510834</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03744843863893287</v>
+        <v>0.05249276346284133</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
